--- a/data/georgia_census/samegrelo/xobi/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/xobi/healthcare_staff.xlsx
@@ -1361,13 +1361,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EC2168-FEBC-4870-A22F-89E56F444AD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C905DF-6AA6-4AF2-BB25-74B7DA3BE244}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22510CE-CA75-4380-8635-85702BF774F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C582E980-9616-42B0-A582-907CCEDD9A4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26568C2-4951-4ED3-A894-95E51E7D1583}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BBB72B2-C877-458F-8B71-27B71658142B}"/>
 </file>